--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216DD994-4A51-4663-9A9B-0A9B29E5A5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1BB58-ED49-434D-8D97-F0F723FF9A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -134,6 +134,44 @@
   </si>
   <si>
     <t>vm</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>003sp</t>
+  </si>
+  <si>
+    <t>vm-003sp-varsovia-bs</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>real en Las Vegas</t>
+  </si>
+  <si>
+    <t>cambios según me parece, corazonada</t>
+  </si>
+  <si>
+    <t>creacion variables</t>
+  </si>
+  <si>
+    <t>SP + mai (ver)</t>
+  </si>
+  <si>
+    <t>PARAM$RandomForest$run &lt;- TRUE
+PARAM$RandomForest$num.trees &lt;- 20
+PARAM$RandomForest$max.depth &lt;- 4
+PARAM$RandomForest$min.node.size &lt;- 666
+PARAM$RandomForest$mtry &lt;- 50  |min_data_in_leaf = 500,</t>
+  </si>
+  <si>
+    <t>PARAM$future &lt;- c(202109)
+PARAM$final_train &lt;- c(202107, 202106, 202105, 202104, 202103, 202102, 202101, 202012, 202011, 202010)
+PARAM$train$training &lt;- c(202105, 202104, 202103, 202102, 202101, 202012, 202011, 202010, 202009, 202008)
+PARAM$train$validation &lt;- c(202106)
+PARAM$train$testing &lt;- c(202107)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -582,18 +621,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="66.28515625" customWidth="1"/>
+    <col min="13" max="13" width="100.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -615,8 +657,23 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1">
+        <v>731</v>
+      </c>
+      <c r="M1">
+        <v>741</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -636,7 +693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -657,9 +714,51 @@
       </c>
       <c r="H3" t="s">
         <v>30</v>
+      </c>
+      <c r="I3" s="5">
+        <v>20230717073300</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F1BB58-ED49-434D-8D97-F0F723FF9A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60774B-05CB-40A2-B1CD-FFBFC3FEF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="exp" sheetId="2" r:id="rId2"/>
+    <sheet name="rdos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -173,12 +174,124 @@
 PARAM$train$validation &lt;- c(202106)
 PARAM$train$testing &lt;- c(202107)</t>
   </si>
+  <si>
+    <t>ZZ7710_002sp_03_001_10500p</t>
+  </si>
+  <si>
+    <t>archivo</t>
+  </si>
+  <si>
+    <t>drive</t>
+  </si>
+  <si>
+    <t>infortunio</t>
+  </si>
+  <si>
+    <t>Gcia</t>
+  </si>
+  <si>
+    <t>ZZ7710_002sp_03_001_11000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_002sp_03_001_11500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_002sp_03_001_12000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_002sp_03_001_12500p</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>enriquevegasua</t>
+  </si>
+  <si>
+    <t>vm004sp-lasvegas-ev</t>
+  </si>
+  <si>
+    <t>elimino variables mai, dejo las mias</t>
+  </si>
+  <si>
+    <t>PARAM$Tendencias1$run &lt;- TRUE
+PARAM$Tendencias1$ventana &lt;- 3
+PARAM$Tendencias1$tendencia &lt;- TRUE
+PARAM$Tendencias1$minimo &lt;- FALSE
+PARAM$Tendencias1$maximo &lt;- FALSE
+PARAM$Tendencias1$promedio &lt;- TRUE
+PARAM$Tendencias1$ratioavg &lt;- FALSE
+PARAM$Tendencias1$ratiomax &lt;- FALSE
+PARAM$Tendencias2$run &lt;- TRUE
+PARAM$Tendencias2$ventana &lt;- 6
+PARAM$Tendencias2$tendencia &lt;- TRUE
+PARAM$Tendencias2$minimo &lt;- FALSE
+PARAM$Tendencias2$maximo &lt;- FALSE
+PARAM$Tendencias2$promedio &lt;- TRUE
+PARAM$Tendencias2$ratioavg &lt;- FALSE
+PARAM$Tendencias2$ratiomax &lt;- FALSE
+PARAM$RandomForest$run &lt;- TRUE
+PARAM$RandomForest$num.trees &lt;- 300
+PARAM$RandomForest$max.depth &lt;- 8
+PARAM$RandomForest$min.node.size &lt;- 700
+PARAM$RandomForest$mtry &lt;- 75
+PARAM$RandomForest$semilla &lt;- 666667 # cambiar por la propia semilla
+# varia de 0.0 a 2.0, si es 0.0 NO se activan
+PARAM$CanaritosAsesinos$ratio &lt;- 0.66
+# desvios estandar de la media, para el cutoff
+PARAM$CanaritosAsesinos$desvios &lt;- 2</t>
+  </si>
+  <si>
+    <t>PARAM$train$undersampling &lt;- 0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Hiperparametros FIJOS de  lightgbm
+PARAM$lgb_basicos &lt;- list(
+  boosting = "gbdt", # puede ir  dart  , ni pruebe random_forest
+  objective = "binary",
+  metric = "custom",
+  first_metric_only = TRUE,
+  boost_from_average = TRUE,
+  feature_pre_filter = FALSE,
+  force_row_wise = TRUE, # para reducir warnings
+  verbosity = -100,
+  max_depth = 8.0, #-1L, # -1 significa no limitar,  por ahora lo dejo fijo
+  min_gain_to_split = 3.0, # min_gain_to_split &gt;= 0.0
+  min_sum_hessian_in_leaf = 0.001, #  min_sum_hessian_in_leaf &gt;= 0.0
+  lambda_l1 = 0.1, # lambda_l1 &gt;= 0.0
+  lambda_l2 = 0.1, # lambda_l2 &gt;= 0.0
+  max_bin = 31L, # lo debo dejar fijo, no participa de la BO
+  num_iterations = 9999, # un numero muy grande, lo limita early_stopping_rounds
+  bagging_fraction = 0.6, # 0.0 &lt; bagging_fraction &lt;= 1.0
+  pos_bagging_fraction = 0.6, # 0.0 &lt; pos_bagging_fraction &lt;= 1.0
+  neg_bagging_fraction = 0.6, # 0.0 &lt; neg_bagging_fraction &lt;= 1.0
+  is_unbalance = FALSE, #
+  scale_pos_weight = 1.0, # scale_pos_weight &gt; 0.0
+  drop_rate = 0.1, # 0.0 &lt; neg_bagging_fraction &lt;= 1.0
+  max_drop = 50, # &lt;=0 means no limit
+  skip_drop = 0.5, # 0.0 &lt;= skip_drop &lt;= 1.0
+  extra_trees = TRUE, # Magic Sauce
+  seed = PARAM$lgb_semilla
+)</t>
+  </si>
+  <si>
+    <t>PARAM$semillerio &lt;- 25
+# se utiliza para generar el vector de  PARAM$semillerio  semillas
+PARAM$semilla_primos &lt;- 666707
+PARAM$kaggle$envios_desde &lt;- 10000L
+PARAM$kaggle$envios_hasta &lt;- 12000L
+PARAM$kaggle$envios_salto &lt;- 500L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,16 +321,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,23 +357,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -621,140 +779,305 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="40.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="66.28515625" customWidth="1"/>
-    <col min="13" max="13" width="100.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" style="11"/>
+    <col min="12" max="12" width="66.28515625" style="11" customWidth="1"/>
+    <col min="13" max="14" width="100.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="9">
         <v>771</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="9">
         <v>731</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="9">
         <v>741</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="N1" s="9">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="11">
         <v>0.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="11">
         <v>0.5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <v>69.739485000000002</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>0.5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="12">
+        <f>rdos!E4</f>
+        <v>49.449102000000003</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="13">
         <v>20230717073300</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="11">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="14" t="s">
         <v>41</v>
+      </c>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25FCFFD-2E80-4959-9D99-0D58E79A0770}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49.839089999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6">
+        <v>49.139110000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="6">
+        <v>49.559100000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <f>AVERAGE(D2:D6)</f>
+        <v>49.449102000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6">
+        <v>49.539099999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6">
+        <v>49.169110000000003</v>
       </c>
     </row>
   </sheetData>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60774B-05CB-40A2-B1CD-FFBFC3FEF720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93154DA7-6A81-4A88-B6CD-CB309BD69F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -282,6 +282,15 @@
 PARAM$kaggle$envios_desde &lt;- 10000L
 PARAM$kaggle$envios_hasta &lt;- 12000L
 PARAM$kaggle$envios_salto &lt;- 500L</t>
+  </si>
+  <si>
+    <t>004sp</t>
+  </si>
+  <si>
+    <t>20230717 224000</t>
+  </si>
+  <si>
+    <t>20230717 073300</t>
   </si>
 </sst>
 </file>
@@ -781,8 +790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,8 +900,8 @@
       <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="13">
-        <v>20230717073300</v>
+      <c r="I3" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>36</v>
@@ -935,7 +945,7 @@
     </row>
     <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>52</v>
@@ -954,6 +964,9 @@
       </c>
       <c r="H5" s="11" t="s">
         <v>53</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>54</v>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93154DA7-6A81-4A88-B6CD-CB309BD69F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E457050-0E2A-4D92-8963-EE3494BE911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -291,6 +291,75 @@
   </si>
   <si>
     <t>20230717 073300</t>
+  </si>
+  <si>
+    <t>vm004-b-sp-treblinka-ev</t>
+  </si>
+  <si>
+    <t>ZZ7710_003sp_03_064_10500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_003sp_03_064_11000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_003sp_03_064_11500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_003sp_03_064_12000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_003sp_03_064_12500p</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_ponder_10500</t>
+  </si>
+  <si>
+    <t>002_003sp</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_ponder_11000</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_ponder_11500</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_ponder_12000</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_ponder_12500</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_simple_10500</t>
+  </si>
+  <si>
+    <t>002_003sps</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_simple_11000</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_simple_11500</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_simple_12000</t>
+  </si>
+  <si>
+    <t>HB7810_002_003sp_hibrid_simple_12500</t>
+  </si>
+  <si>
+    <t>ZZ7710_004sp_03_046_10000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_004sp_03_046_10500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_004sp_03_046_11000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_004sp_03_046_11500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_004sp_03_046_12000p</t>
   </si>
 </sst>
 </file>
@@ -338,7 +407,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +423,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +480,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +498,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -788,11 +889,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,6 +1082,44 @@
         <v>57</v>
       </c>
     </row>
+    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -989,16 +1128,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25FCFFD-2E80-4959-9D99-0D58E79A0770}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E6"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -1093,6 +1232,302 @@
         <v>49.169110000000003</v>
       </c>
     </row>
+    <row r="7" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="16">
+        <v>49.169110000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="16">
+        <v>49.259099999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="16">
+        <v>51.199069999999999</v>
+      </c>
+      <c r="E9" s="16">
+        <f>AVERAGE(D7:D11)</f>
+        <v>50.395083999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>50.789079999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16">
+        <v>51.559060000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="18">
+        <v>50.149090000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="18">
+        <v>49.565100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="18">
+        <v>50.449080000000002</v>
+      </c>
+      <c r="E14" s="18">
+        <f>AVERAGE(D12:D16)</f>
+        <v>50.190287999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="18">
+        <v>50.18909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="18">
+        <v>50.599080000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="20">
+        <v>50.149090000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="20">
+        <v>49.565100000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="20">
+        <v>50.449080000000002</v>
+      </c>
+      <c r="E19" s="20">
+        <f>AVERAGE(D17:D21)</f>
+        <v>50.190287999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="20">
+        <v>50.18909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="20">
+        <v>50.599080000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="22">
+        <v>51.249070000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="22">
+        <v>52.999040000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="22">
+        <v>53.089039999999997</v>
+      </c>
+      <c r="E24" s="22">
+        <f>AVERAGE(D22:D26)</f>
+        <v>52.421048000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="22">
+        <v>52.71904</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="22">
+        <v>52.049050000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E457050-0E2A-4D92-8963-EE3494BE911A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A14D6-520E-4B7B-9989-EDC9219A8A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -360,6 +360,94 @@
   </si>
   <si>
     <t>ZZ7710_004sp_03_046_12000p</t>
+  </si>
+  <si>
+    <t>005sp</t>
+  </si>
+  <si>
+    <t>vm005-sp-treblinka-ev</t>
+  </si>
+  <si>
+    <t>HB7810_003_004sp_hibrid_ponder_10500</t>
+  </si>
+  <si>
+    <t>003_004sps</t>
+  </si>
+  <si>
+    <t>HB7810_003_004sp_hibrid_ponder_11000</t>
+  </si>
+  <si>
+    <t>HB7810_003_004sp_hibrid_ponder_11500</t>
+  </si>
+  <si>
+    <t>HB7810_003_004sp_hibrid_ponder_12000</t>
+  </si>
+  <si>
+    <t>HB7810_003_004sp_hibrid_ponder_12500</t>
+  </si>
+  <si>
+    <t>PARAM$lag1 &lt;- TRUE
+PARAM$lag2 &lt;- TRUE
+PARAM$lag3 &lt;- FALSE
+--
+PARAM$Tendencias1$run &lt;- TRUE
+PARAM$Tendencias1$ventana &lt;- 6
+PARAM$Tendencias1$tendencia &lt;- TRUE
+PARAM$Tendencias1$minimo &lt;- FALSE
+PARAM$Tendencias1$maximo &lt;- FALSE
+PARAM$Tendencias1$promedio &lt;- TRUE
+PARAM$Tendencias1$ratioavg &lt;- FALSE
+PARAM$Tendencias1$ratiomax &lt;- FALSE
+--
+PARAM$Tendencias2$run &lt;- FALSE
+PARAM$Tendencias2$ventana &lt;- 6
+PARAM$Tendencias2$tendencia &lt;- TRUE
+PARAM$Tendencias2$minimo &lt;- FALSE
+PARAM$Tendencias2$maximo &lt;- FALSE
+PARAM$Tendencias2$promedio &lt;- TRUE
+PARAM$Tendencias2$ratioavg &lt;- FALSE
+PARAM$Tendencias2$ratiomax &lt;- FALSE
+--
+PARAM$RandomForest$run &lt;- TRUE
+PARAM$RandomForest$num.trees &lt;- 66
+PARAM$RandomForest$max.depth &lt;- 6
+PARAM$RandomForest$min.node.size &lt;- 666
+PARAM$RandomForest$mtry &lt;- 66
+PARAM$RandomForest$semilla &lt;- 666667 # cambiar por la propia semilla
+--
+# varia de 0.0 a 2.0, si es 0.0 NO se activan
+PARAM$CanaritosAsesinos$ratio &lt;- 0.66
+# desvios estandar de la media, para el cutoff
+PARAM$CanaritosAsesinos$desvios &lt;- 2
+# cambiar por la propia semilla
+PARAM$CanaritosAsesinos$semilla &lt;- 666671</t>
+  </si>
+  <si>
+    <t>meses no</t>
+  </si>
+  <si>
+    <t>PARAM$RandomForest$max.depth &lt;- 9 (de 6  a 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PARAM$future &lt;- c(202109)
+PARAM$final_train &lt;- c(
+  202107, 202106, 202105, 202104, 202103, 
+  202102, 202101, 202012, 202011, 202010, 
+  202009, 202008, 202002, 202001, 201912,
+  201911, 201910, 201909, 201908, 201907
+)
+PARAM$train$training &lt;- c(
+  202105, 202104, 202103, 202102, 202101,
+  202012, 202011, 202010, 202009, 202008, 
+  202002, 202001, 201912, 201911, 201910, 
+  201909, 201908, 201907, 201906, 201905
+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> max_depth = 9.0,bagging_fraction = 0.66, # 0.0 &lt; bagging_fraction &lt;= 1.0
+  pos_bagging_fraction = 0.66, # 0.0 &lt; pos_bagging_fraction &lt;= 1.0
+  neg_bagging_fraction = 0.66</t>
   </si>
 </sst>
 </file>
@@ -407,7 +495,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,6 +538,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -480,7 +574,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -506,6 +600,8 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -788,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +900,7 @@
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -823,8 +919,11 @@
       <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,8 +942,11 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>201910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -860,8 +962,11 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>202006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -889,11 +994,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,7 +1115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>33</v>
       </c>
@@ -1021,6 +1128,10 @@
       <c r="D4" s="11">
         <v>2</v>
       </c>
+      <c r="E4" s="12">
+        <f>rdos!E9</f>
+        <v>50.395083999999997</v>
+      </c>
       <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
@@ -1044,7 +1155,7 @@
       </c>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
@@ -1082,7 +1193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>59</v>
       </c>
@@ -1095,6 +1206,10 @@
       <c r="D6" s="11">
         <v>2</v>
       </c>
+      <c r="E6" s="12">
+        <f>rdos!E24</f>
+        <v>52.421048000000006</v>
+      </c>
       <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
@@ -1111,13 +1226,45 @@
         <v>54</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="N6" s="14" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1128,11 +1275,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25FCFFD-2E80-4959-9D99-0D58E79A0770}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,6 +1675,56 @@
         <v>52.049050000000001</v>
       </c>
     </row>
+    <row r="27" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="24">
+        <v>51.659059999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="24">
+        <v>53.069040000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="24">
+        <v>52.429049999999997</v>
+      </c>
+      <c r="E29" s="24">
+        <f>AVERAGE(D27:D31)</f>
+        <v>52.155054000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="24">
+        <v>51.969059999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="24">
+        <v>51.649059999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A14D6-520E-4B7B-9989-EDC9219A8A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491B440-42C0-4382-9526-8C0ED5B558D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -448,6 +448,30 @@
     <t xml:space="preserve"> max_depth = 9.0,bagging_fraction = 0.66, # 0.0 &lt; bagging_fraction &lt;= 1.0
   pos_bagging_fraction = 0.66, # 0.0 &lt; pos_bagging_fraction &lt;= 1.0
   neg_bagging_fraction = 0.66</t>
+  </si>
+  <si>
+    <t>006sp</t>
+  </si>
+  <si>
+    <t>vm-006-sp-varsovia-bs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+PARAM$future &lt;- c(202109)
+PARAM$final_train &lt;- c(
+  202107, 202106, 202105, 202104, 202103, 
+  202102, 202101, 202012, 202011, 202010, 
+  202009, 202008, 202002, 202001, 201912,
+  201911, 201909, 201908, 201907, 201606
+)
+PARAM$train$training &lt;- c(
+  202105, 202104, 202103, 202102, 202101,
+  202012, 202011, 202010, 202009, 202008, 
+  202002, 202001, 201912, 201911, 201909, 
+  201908, 201907, 201906, 201905, 201904
+)
+PARAM$train$validation &lt;- c(202105)
+PARAM$train$testing &lt;- c(202106, 202107)</t>
   </si>
 </sst>
 </file>
@@ -994,13 +1018,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,6 +1290,35 @@
       <c r="N7" s="14" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491B440-42C0-4382-9526-8C0ED5B558D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB573C6-2469-4481-AB84-06A3A02B32ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -473,6 +473,67 @@
 PARAM$train$validation &lt;- c(202105)
 PARAM$train$testing &lt;- c(202106, 202107)</t>
   </si>
+  <si>
+    <t>ZZ7710_005sp_03_065_10000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_005sp_03_065_10500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_005sp_03_065_11000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_005sp_03_065_11500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_005sp_03_065_12500p</t>
+  </si>
+  <si>
+    <t>PARAM$RandomForest$max.depth &lt;- 7 (de 6  a 9)</t>
+  </si>
+  <si>
+    <t>007sp</t>
+  </si>
+  <si>
+    <t>ver entre 4 o 6</t>
+  </si>
+  <si>
+    <t>PARAM$train$undersampling &lt;- 0.33</t>
+  </si>
+  <si>
+    <t>PARAM$lgb_basicos &lt;- list(
+  boosting = "gbdt", # puede ir  dart  , ni pruebe random_forest
+  objective = "binary",
+  metric = "custom",
+  first_metric_only = TRUE,
+  boost_from_average = TRUE,
+  feature_pre_filter = FALSE,
+  force_row_wise = TRUE, # para reducir warnings
+  verbosity = -100,
+  max_depth = 7.0, #-1L, # -1 significa no limitar,  por ahora lo dejo fijo
+  min_gain_to_split = 3.0, # min_gain_to_split &gt;= 0.0
+  min_sum_hessian_in_leaf = 0.001, #  min_sum_hessian_in_leaf &gt;= 0.0
+  lambda_l1 = 0.1, # lambda_l1 &gt;= 0.0
+  lambda_l2 = 0.1, # lambda_l2 &gt;= 0.0
+  max_bin = 31L, # lo debo dejar fijo, no participa de la BO
+  num_iterations = 9999, # un numero muy grande, lo limita early_stopping_rounds
+  bagging_fraction = 0.5, # 0.0 &lt; bagging_fraction &lt;= 1.0
+  pos_bagging_fraction = 0.5, # 0.0 &lt; pos_bagging_fraction &lt;= 1.0
+  neg_bagging_fraction = 0.5, # 0.0 &lt; neg_bagging_fraction &lt;= 1.0
+  is_unbalance = FALSE, #
+  scale_pos_weight = 1.0, # scale_pos_weight &gt; 0.0
+  drop_rate = 0.1, # 0.0 &lt; neg_bagging_fraction &lt;= 1.0
+  max_drop = 50, # &lt;=0 means no limit
+  skip_drop = 0.5, # 0.0 &lt;= skip_drop &lt;= 1.0</t>
+  </si>
+  <si>
+    <t>PARAM$semillerio &lt;- 25
+# se utiliza para generar el vector de  PARAM$semillerio  semillas
+PARAM$semilla_primos &lt;- 666707
+PARAM$kaggle$envios_desde &lt;- 10000L
+PARAM$kaggle$envios_hasta &lt;- 12000L
+PARAM$kaggle$envios_salto &lt;- 500LPARAM$modelos_rank &lt;- c(3)</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +542,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,8 +579,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +635,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -598,7 +671,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -626,6 +699,25 @@
     <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1021,10 +1113,10 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,12 +1126,12 @@
     <col min="3" max="4" width="5.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.5703125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" style="11"/>
-    <col min="12" max="12" width="66.28515625" style="11" customWidth="1"/>
-    <col min="13" max="14" width="100.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="11"/>
+    <col min="11" max="11" width="66.28515625" style="11" customWidth="1"/>
+    <col min="12" max="13" width="100.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="40.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1061,29 +1153,29 @@
       <c r="F1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="9">
+        <v>731</v>
+      </c>
+      <c r="L1" s="9">
+        <v>741</v>
+      </c>
+      <c r="M1" s="9">
+        <v>751</v>
+      </c>
+      <c r="N1" s="9">
         <v>771</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="9">
-        <v>731</v>
-      </c>
-      <c r="M1" s="9">
-        <v>741</v>
-      </c>
-      <c r="N1" s="9">
-        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -1126,17 +1218,17 @@
       <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,25 +1251,25 @@
       <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -1195,108 +1287,116 @@
       <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="34">
         <v>0.66</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="34">
         <v>2</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="35">
         <f>rdos!E24</f>
         <v>52.421048000000006</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:14" s="33" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0.66</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="30">
+        <f>rdos!E34</f>
+        <v>47.85313</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.66</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="L7" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="32" t="s">
         <v>97</v>
       </c>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C8" s="11">
         <v>0.66</v>
@@ -1307,18 +1407,43 @@
       <c r="F8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M9" s="14"/>
+    <row r="9" spans="1:14" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1328,16 +1453,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25FCFFD-2E80-4959-9D99-0D58E79A0770}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
@@ -1746,6 +1872,12 @@
       <c r="A28" s="23" t="s">
         <v>89</v>
       </c>
+      <c r="B28" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="D28" s="24">
         <v>53.069040000000001</v>
       </c>
@@ -1754,6 +1886,12 @@
       <c r="A29" s="23" t="s">
         <v>90</v>
       </c>
+      <c r="B29" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="D29" s="24">
         <v>52.429049999999997</v>
       </c>
@@ -1766,16 +1904,102 @@
       <c r="A30" s="23" t="s">
         <v>91</v>
       </c>
+      <c r="B30" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="D30" s="24">
         <v>51.969059999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
         <v>92</v>
       </c>
+      <c r="B31" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="D31" s="24">
         <v>51.649059999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="16">
+        <v>47.309139999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="16">
+        <v>47.049140000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="16">
+        <v>47.999130000000001</v>
+      </c>
+      <c r="E34" s="16">
+        <f>AVERAGE(D32:D36)</f>
+        <v>47.85313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="16">
+        <v>48.699120000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="16">
+        <v>48.209119999999999</v>
       </c>
     </row>
   </sheetData>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB573C6-2469-4481-AB84-06A3A02B32ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18CA3E5-33CF-49B8-B850-77666C8A2D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -495,9 +495,6 @@
     <t>007sp</t>
   </si>
   <si>
-    <t>ver entre 4 o 6</t>
-  </si>
-  <si>
     <t>PARAM$train$undersampling &lt;- 0.33</t>
   </si>
   <si>
@@ -533,6 +530,82 @@
 PARAM$kaggle$envios_desde &lt;- 10000L
 PARAM$kaggle$envios_hasta &lt;- 12000L
 PARAM$kaggle$envios_salto &lt;- 500LPARAM$modelos_rank &lt;- c(3)</t>
+  </si>
+  <si>
+    <t>vm007-b-sp-treblinka-ev</t>
+  </si>
+  <si>
+    <t>008sp</t>
+  </si>
+  <si>
+    <t>PARAM$lag1 &lt;- TRUE
+PARAM$lag2 &lt;- TRUE
+PARAM$lag3 &lt;- FALSE
+--
+PARAM$Tendencias1$run &lt;- TRUE
+PARAM$Tendencias1$ventana &lt;- 6
+PARAM$Tendencias1$tendencia &lt;- TRUE
+PARAM$Tendencias1$minimo &lt;- FALSE
+PARAM$Tendencias1$maximo &lt;- FALSE
+PARAM$Tendencias1$promedio &lt;- TRUE
+PARAM$Tendencias1$ratioavg &lt;- FALSE
+PARAM$Tendencias1$ratiomax &lt;- FALSE
+--
+PARAM$Tendencias2$run &lt;- FALSE
+PARAM$Tendencias2$ventana &lt;- 6
+PARAM$Tendencias2$tendencia &lt;- TRUE
+PARAM$Tendencias2$minimo &lt;- FALSE
+PARAM$Tendencias2$maximo &lt;- FALSE
+PARAM$Tendencias2$promedio &lt;- TRUE
+PARAM$Tendencias2$ratioavg &lt;- FALSE
+PARAM$Tendencias2$ratiomax &lt;- FALSE
+--
+PARAM$RandomForest$run &lt;- TRUE
+PARAM$RandomForest$num.trees &lt;- 66
+PARAM$RandomForest$max.depth &lt;- 5
+PARAM$RandomForest$min.node.size &lt;- 666
+PARAM$RandomForest$mtry &lt;- 66
+PARAM$RandomForest$semilla &lt;- 666667--
+# varia de 0.0 a 2.0, si es 0.0 NO se activan
+PARAM$CanaritosAsesinos$ratio &lt;- 0.66
+# desvios estandar de la media, para el cutoff
+PARAM$CanaritosAsesinos$desvios &lt;- 2
+# cambiar por la propia semilla
+PARAM$CanaritosAsesinos$semilla &lt;- 666671</t>
+  </si>
+  <si>
+    <t>PARAM$train$undersampling &lt;- 0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# Hiperparametros FIJOS de  lightgbm
+PARAM$lgb_basicos &lt;- list(
+  boosting = "gbdt", # puede ir  dart  , ni pruebe random_forest
+  objective = "binary",
+  metric = "custom",
+  first_metric_only = TRUE,
+  boost_from_average = TRUE,
+  feature_pre_filter = FALSE,
+  force_row_wise = TRUE, # para reducir warnings
+  verbosity = -100,
+  max_depth = 8.0, #-1L, # -1 significa no limitar,  por ahora lo dejo fijo
+  min_gain_to_split = 2.0, # min_gain_to_split &gt;= 0.0
+  min_sum_hessian_in_leaf = 0.001, #  min_sum_hessian_in_leaf &gt;= 0.0
+  lambda_l1 = 0.1, # lambda_l1 &gt;= 0.0
+  lambda_l2 = 0.1, # lambda_l2 &gt;= 0.0
+  max_bin = 31L, # lo debo dejar fijo, no participa de la BO
+  num_iterations = 9999, # un numero muy grande, lo limita early_stopping_rounds
+  bagging_fraction = 0.6, # 0.0 &lt; bagging_fraction &lt;= 1.0
+  pos_bagging_fraction = 0.6, # 0.0 &lt; pos_bagging_fraction &lt;= 1.0
+  neg_bagging_fraction = 0.6, # 0.0 &lt; neg_bagging_fraction &lt;= 1.0
+  is_unbalance = FALSE, #
+  scale_pos_weight = 1.0, # scale_pos_weight &gt; 0.0
+  drop_rate = 0.1, # 0.0 &lt; neg_bagging_fraction &lt;= 1.0
+  max_drop = 50, # &lt;=0 means no limit
+  skip_drop = 0.5, # 0.0 &lt;= skip_drop &lt;= 1.0
+  extra_trees = TRUE, # Magic Sauce
+  seed = PARAM$lgb_semilla
+)</t>
   </si>
 </sst>
 </file>
@@ -671,7 +744,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -701,10 +774,6 @@
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -718,6 +787,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1110,13 +1184,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,86 +1384,86 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="32">
         <v>0.66</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>2</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <f>rdos!E24</f>
         <v>52.421048000000006</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="32"/>
+      <c r="J6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="33" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:14" s="31" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>0.66</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <f>rdos!E34</f>
         <v>47.85313</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="29"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
@@ -1417,32 +1491,83 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="15" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:14" s="19" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.66</v>
+      </c>
+      <c r="D9" s="36">
+        <v>2</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="28" t="s">
+      <c r="M9" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="N9" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="28" t="s">
-        <v>111</v>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.66</v>
+      </c>
+      <c r="D10" s="32">
+        <v>2</v>
+      </c>
+      <c r="E10" s="33">
+        <f>rdos!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18CA3E5-33CF-49B8-B850-77666C8A2D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C11068-727D-477C-A492-DEE38DD7F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="137">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -606,6 +606,109 @@
   extra_trees = TRUE, # Magic Sauce
   seed = PARAM$lgb_semilla
 )</t>
+  </si>
+  <si>
+    <t>vm008-sp-treblinka-spua</t>
+  </si>
+  <si>
+    <t>ZZ7710_007sp_03_047_10000p.csv</t>
+  </si>
+  <si>
+    <t>ZZ7710_007sp_03_047_10500p.csv</t>
+  </si>
+  <si>
+    <t>ZZ7710_007sp_03_047_11000p.csv</t>
+  </si>
+  <si>
+    <t>ZZ7710_007sp_03_047_11500p.csv</t>
+  </si>
+  <si>
+    <t>ZZ7710_007sp_03_047_12000p.csv</t>
+  </si>
+  <si>
+    <t>HB7810_004_007sp_hibrid_ponder_10500</t>
+  </si>
+  <si>
+    <t>HB7810_004_007sp_hibrid_ponder_11000</t>
+  </si>
+  <si>
+    <t>004_007sps</t>
+  </si>
+  <si>
+    <t>HB7810_004_007sp_hibrid_ponder_11500</t>
+  </si>
+  <si>
+    <t>HB7810_004_007sp_hibrid_simple_12000</t>
+  </si>
+  <si>
+    <t>HB7810_004_007sp_hibrid_simple_12500</t>
+  </si>
+  <si>
+    <t>6_11000</t>
+  </si>
+  <si>
+    <t>ZZ7710_008sp_03_066_10000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_008sp_03_066_10500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_008sp_03_066_11000p</t>
+  </si>
+  <si>
+    <t>ZZ7710_008sp_03_066_11500p</t>
+  </si>
+  <si>
+    <t>ZZ7710_008sp_03_066_12000p</t>
+  </si>
+  <si>
+    <t>009sp</t>
+  </si>
+  <si>
+    <t>vm004-b-sp-lasvegas-ev</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PARAM$lag1 &lt;- TRUE
+PARAM$lag2 &lt;- TRUE
+PARAM$lag3 &lt;- FALSE
+PARAM$Tendencias1$run &lt;- TRUE
+PARAM$Tendencias1$ventana &lt;- 6
+PARAM$Tendencias1$tendencia &lt;- TRUE
+PARAM$Tendencias1$minimo &lt;- FALSE
+PARAM$Tendencias1$maximo &lt;- FALSE
+PARAM$Tendencias1$promedio &lt;- TRUE
+PARAM$Tendencias1$ratioavg &lt;- FALSE
+PARAM$Tendencias1$ratiomax &lt;- FALSE
+PARAM$Tendencias2$run &lt;- FALSE
+# varia de 0.0 a 2.0, si es 0.0 NO se activan
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PARAM$CanaritosAsesinos$ratio &lt;- 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t># desvios estandar de la media, para el cutoff
+PARAM$CanaritosAsesinos$desvios &lt;- 2
+# cambiar por la propia semilla
+PARAM$CanaritosAsesinos$semilla &lt;- 666671</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -659,7 +762,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +817,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -744,7 +871,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -792,6 +919,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1184,13 +1323,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1643,10 @@
       <c r="D9" s="36">
         <v>2</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="41">
+        <f>rdos!E44</f>
+        <v>51.097072000000004</v>
+      </c>
       <c r="F9" s="36" t="s">
         <v>28</v>
       </c>
@@ -1532,7 +1674,7 @@
         <v>112</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C10" s="32">
         <v>0.66</v>
@@ -1541,14 +1683,14 @@
         <v>2</v>
       </c>
       <c r="E10" s="33">
-        <f>rdos!E28</f>
-        <v>0</v>
+        <f>rdos!E54</f>
+        <v>51.973056000000007</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>60</v>
@@ -1567,6 +1709,46 @@
         <v>115</v>
       </c>
       <c r="N10" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1</v>
+      </c>
+      <c r="D11" s="32">
+        <v>2</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1578,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25FCFFD-2E80-4959-9D99-0D58E79A0770}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,6 +1772,8 @@
     <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2067,7 +2251,7 @@
         <v>47.309139999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>102</v>
       </c>
@@ -2081,7 +2265,7 @@
         <v>47.049140000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>103</v>
       </c>
@@ -2099,7 +2283,7 @@
         <v>47.85313</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>104</v>
       </c>
@@ -2113,7 +2297,7 @@
         <v>48.699120000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>105</v>
       </c>
@@ -2125,6 +2309,271 @@
       </c>
       <c r="D36" s="16">
         <v>48.209119999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="45"/>
+    </row>
+    <row r="38" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="45">
+        <v>49.649099999999997</v>
+      </c>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+    </row>
+    <row r="39" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+    </row>
+    <row r="40" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="45"/>
+    </row>
+    <row r="41" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="45"/>
+    </row>
+    <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="40">
+        <v>50.689079999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="40">
+        <v>50.81908</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="40">
+        <v>51.479059999999997</v>
+      </c>
+      <c r="E44" s="40">
+        <f>AVERAGE(D42:D46)</f>
+        <v>51.097072000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="40">
+        <v>51.429070000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="40">
+        <v>51.069070000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" s="47">
+        <v>50.969070000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="47">
+        <v>51.799059999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="47">
+        <v>51.67906</v>
+      </c>
+      <c r="E49" s="47">
+        <f>AVERAGE(D47:D51)</f>
+        <v>51.545064000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="47">
+        <v>51.459069999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="47">
+        <v>51.81906</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="50">
+        <v>51.81906</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="50">
+        <v>52.389049999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="50">
+        <v>52.149050000000003</v>
+      </c>
+      <c r="E54" s="50">
+        <f>AVERAGE(D52:D56)</f>
+        <v>51.973056000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="50">
+        <v>51.549059999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="50">
+        <v>51.959060000000001</v>
       </c>
     </row>
   </sheetData>

--- a/src/workflow-semillerio/Experimentos.xlsx
+++ b/src/workflow-semillerio/Experimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\GitHub\labo2023r\src\workflow-semillerio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C11068-727D-477C-A492-DEE38DD7F661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E4F6D4-6514-4871-B2C9-904C38F4E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="139">
   <si>
     <t>enriquevegasua@gmail.com</t>
   </si>
@@ -709,6 +709,16 @@
 # cambiar por la propia semilla
 PARAM$CanaritosAsesinos$semilla &lt;- 666671</t>
     </r>
+  </si>
+  <si>
+    <t>bagging_fraction = 0.8, # 0.0 &lt; bagging_fraction &lt;= 1.0
+  pos_bagging_fraction = 0.9, # 0.0 &lt; pos_bagging_fraction &lt;= 1.0
+  neg_bagging_fraction = 0.1, # 0.0 &lt; neg_bagging_fraction &lt;= 1.0
+  is_unbalance = TRUE, #
+  scale_pos_weight = 1.0, # scale_pos_weight &gt; 0.0</t>
+  </si>
+  <si>
+    <t>010sp</t>
   </si>
 </sst>
 </file>
@@ -762,7 +772,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +851,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -871,7 +887,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -924,13 +940,18 @@
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1323,13 +1344,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96723825-D687-48AB-A668-4A5F8C2B6B23}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,49 +1733,70 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="277.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:14" s="52" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="49">
         <v>1</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="49">
         <v>2</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="50"/>
+      <c r="F11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="32" t="s">
+      <c r="L11" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="34" t="s">
+      <c r="M11" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="53" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="12" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="11">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G12" r:id="rId1" display="https://console.cloud.google.com/compute/instancesDetail/zones/europe-central2-b/instances/vm008-sp-treblinka-spua?project=true-bit-389115" xr:uid="{9D3860CC-AED5-4044-86D8-D2FE59754CEA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2316,10 +2358,10 @@
       <c r="B37" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="45"/>
+      <c r="D37" s="44"/>
     </row>
     <row r="38" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
@@ -2328,46 +2370,46 @@
       <c r="B38" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="44">
         <v>49.649099999999997</v>
       </c>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42"/>
       <c r="B39" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
+      <c r="D39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="45"/>
+      <c r="D40" s="44"/>
     </row>
     <row r="41" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="42"/>
       <c r="B41" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="45"/>
+      <c r="D41" s="44"/>
     </row>
     <row r="42" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
@@ -2443,136 +2485,136 @@
         <v>51.069070000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46" t="s">
+    <row r="47" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="46">
         <v>50.969070000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="46" t="s">
+    <row r="48" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="46">
         <v>51.799059999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="46" t="s">
+    <row r="49" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="46" t="s">
+      <c r="B49" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D49" s="46">
         <v>51.67906</v>
       </c>
-      <c r="E49" s="47">
+      <c r="E49" s="46">
         <f>AVERAGE(D47:D51)</f>
         <v>51.545064000000004</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46" t="s">
+    <row r="50" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="46">
         <v>51.459069999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="46" t="s">
+    <row r="51" spans="1:5" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="47">
+      <c r="D51" s="46">
         <v>51.81906</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="48" t="s">
+    <row r="52" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="50">
+      <c r="D52" s="48">
         <v>51.81906</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+    <row r="53" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="48" t="s">
+      <c r="B53" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="50">
+      <c r="D53" s="48">
         <v>52.389049999999997</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="48" t="s">
+    <row r="54" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D54" s="48">
         <v>52.149050000000003</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="48">
         <f>AVERAGE(D52:D56)</f>
         <v>51.973056000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="48" t="s">
+    <row r="55" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="50">
+      <c r="D55" s="48">
         <v>51.549059999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="48" t="s">
+    <row r="56" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="48">
         <v>51.959060000000001</v>
       </c>
     </row>
